--- a/UKG/Result.xlsx
+++ b/UKG/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="74">
   <si>
     <t>Student Name</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
   </si>
   <si>
     <t>Rupam Sukla</t>
@@ -590,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,16 +753,19 @@
       <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -873,48 +879,51 @@
         <v>22.4</v>
       </c>
       <c r="AO2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX2">
         <v>339.2</v>
       </c>
       <c r="AY2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1028,48 +1037,51 @@
         <v>32</v>
       </c>
       <c r="AO3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AR3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX3">
         <v>400.8</v>
       </c>
       <c r="AY3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1183,48 +1195,51 @@
         <v>17.6</v>
       </c>
       <c r="AO4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX4">
         <v>123.2</v>
       </c>
       <c r="AY4" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AZ4">
+        <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1338,48 +1353,51 @@
         <v>30.8</v>
       </c>
       <c r="AO5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AS5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX5">
         <v>380.4</v>
       </c>
       <c r="AY5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1493,48 +1511,51 @@
         <v>18.4</v>
       </c>
       <c r="AO6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX6">
         <v>341</v>
       </c>
       <c r="AY6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1648,48 +1669,51 @@
         <v>17.6</v>
       </c>
       <c r="AO7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX7">
         <v>258.8</v>
       </c>
       <c r="AY7" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AZ7">
+        <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1803,48 +1827,51 @@
         <v>32</v>
       </c>
       <c r="AO8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AR8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX8">
         <v>360</v>
       </c>
       <c r="AY8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1958,48 +1985,51 @@
         <v>32</v>
       </c>
       <c r="AO9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AR9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AS9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX9">
         <v>430.8000000000001</v>
       </c>
       <c r="AY9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -2113,48 +2143,51 @@
         <v>31.2</v>
       </c>
       <c r="AO10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AR10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX10">
         <v>394.8000000000001</v>
       </c>
       <c r="AY10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2268,48 +2301,51 @@
         <v>20.8</v>
       </c>
       <c r="AO11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX11">
         <v>245</v>
       </c>
       <c r="AY11" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AZ11">
+        <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:52">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2423,48 +2459,51 @@
         <v>20</v>
       </c>
       <c r="AO12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX12">
         <v>337.4</v>
       </c>
       <c r="AY12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2578,48 +2617,51 @@
         <v>32</v>
       </c>
       <c r="AO13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AR13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AS13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX13">
         <v>444.4</v>
       </c>
       <c r="AY13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -2733,48 +2775,51 @@
         <v>32</v>
       </c>
       <c r="AO14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX14">
         <v>380.6</v>
       </c>
       <c r="AY14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ14">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -2888,48 +2933,51 @@
         <v>24.8</v>
       </c>
       <c r="AO15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX15">
         <v>317.6000000000001</v>
       </c>
       <c r="AY15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -3043,48 +3091,51 @@
         <v>22.4</v>
       </c>
       <c r="AO16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX16">
         <v>285.42</v>
       </c>
       <c r="AY16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ16">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -3198,48 +3249,51 @@
         <v>32</v>
       </c>
       <c r="AO17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX17">
         <v>314.4</v>
       </c>
       <c r="AY17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ17">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:51">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -3353,48 +3407,51 @@
         <v>29.6</v>
       </c>
       <c r="AO18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX18">
         <v>247.62</v>
       </c>
       <c r="AY18" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AZ18">
+        <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:52">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -3508,37 +3565,40 @@
         <v>21.6</v>
       </c>
       <c r="AO19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AR19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX19">
         <v>308.22</v>
       </c>
       <c r="AY19" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AZ19">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/UKG/Result.xlsx
+++ b/UKG/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="76">
   <si>
     <t>Student Name</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
   <si>
     <t>Rupam Sukla</t>
@@ -593,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ19"/>
+  <dimension ref="A1:BB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,16 +762,22 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:54">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -879,51 +891,57 @@
         <v>22.4</v>
       </c>
       <c r="AO2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX2">
         <v>339.2</v>
       </c>
       <c r="AY2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ2">
         <v>900</v>
       </c>
+      <c r="BA2">
+        <v>37.68888888888889</v>
+      </c>
+      <c r="BB2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:54">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1037,51 +1055,57 @@
         <v>32</v>
       </c>
       <c r="AO3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX3">
         <v>400.8</v>
       </c>
       <c r="AY3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ3">
         <v>900</v>
       </c>
+      <c r="BA3">
+        <v>44.53333333333334</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:54">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1195,51 +1219,57 @@
         <v>17.6</v>
       </c>
       <c r="AO4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX4">
         <v>123.2</v>
       </c>
       <c r="AY4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ4">
         <v>900</v>
       </c>
+      <c r="BA4">
+        <v>13.68888888888889</v>
+      </c>
+      <c r="BB4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:54">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1353,51 +1383,57 @@
         <v>30.8</v>
       </c>
       <c r="AO5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX5">
         <v>380.4</v>
       </c>
       <c r="AY5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ5">
         <v>900</v>
       </c>
+      <c r="BA5">
+        <v>42.26666666666667</v>
+      </c>
+      <c r="BB5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:54">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1511,51 +1547,57 @@
         <v>18.4</v>
       </c>
       <c r="AO6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX6">
         <v>341</v>
       </c>
       <c r="AY6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ6">
         <v>900</v>
       </c>
+      <c r="BA6">
+        <v>37.88888888888889</v>
+      </c>
+      <c r="BB6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:54">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1669,51 +1711,57 @@
         <v>17.6</v>
       </c>
       <c r="AO7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX7">
         <v>258.8</v>
       </c>
       <c r="AY7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ7">
         <v>900</v>
       </c>
+      <c r="BA7">
+        <v>28.75555555555556</v>
+      </c>
+      <c r="BB7">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:54">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1827,51 +1875,57 @@
         <v>32</v>
       </c>
       <c r="AO8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX8">
         <v>360</v>
       </c>
       <c r="AY8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ8">
         <v>900</v>
       </c>
+      <c r="BA8">
+        <v>40</v>
+      </c>
+      <c r="BB8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:54">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1985,51 +2039,57 @@
         <v>32</v>
       </c>
       <c r="AO9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX9">
         <v>430.8000000000001</v>
       </c>
       <c r="AY9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ9">
         <v>900</v>
       </c>
+      <c r="BA9">
+        <v>47.86666666666667</v>
+      </c>
+      <c r="BB9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:54">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -2143,51 +2203,57 @@
         <v>31.2</v>
       </c>
       <c r="AO10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX10">
         <v>394.8000000000001</v>
       </c>
       <c r="AY10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ10">
         <v>900</v>
       </c>
+      <c r="BA10">
+        <v>43.86666666666667</v>
+      </c>
+      <c r="BB10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:54">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2301,51 +2367,57 @@
         <v>20.8</v>
       </c>
       <c r="AO11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX11">
         <v>245</v>
       </c>
       <c r="AY11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ11">
         <v>900</v>
       </c>
+      <c r="BA11">
+        <v>27.22222222222222</v>
+      </c>
+      <c r="BB11">
+        <v>17</v>
+      </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:54">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2459,51 +2531,57 @@
         <v>20</v>
       </c>
       <c r="AO12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX12">
         <v>337.4</v>
       </c>
       <c r="AY12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ12">
         <v>900</v>
       </c>
+      <c r="BA12">
+        <v>37.48888888888889</v>
+      </c>
+      <c r="BB12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:54">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2617,51 +2695,57 @@
         <v>32</v>
       </c>
       <c r="AO13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX13">
         <v>444.4</v>
       </c>
       <c r="AY13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ13">
         <v>900</v>
       </c>
+      <c r="BA13">
+        <v>49.37777777777777</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:54">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -2775,51 +2859,57 @@
         <v>32</v>
       </c>
       <c r="AO14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX14">
         <v>380.6</v>
       </c>
       <c r="AY14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ14">
         <v>900</v>
       </c>
+      <c r="BA14">
+        <v>42.28888888888889</v>
+      </c>
+      <c r="BB14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:54">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -2933,51 +3023,57 @@
         <v>24.8</v>
       </c>
       <c r="AO15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX15">
         <v>317.6000000000001</v>
       </c>
       <c r="AY15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ15">
         <v>900</v>
       </c>
+      <c r="BA15">
+        <v>35.2888888888889</v>
+      </c>
+      <c r="BB15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:54">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -3091,51 +3187,57 @@
         <v>22.4</v>
       </c>
       <c r="AO16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX16">
         <v>285.42</v>
       </c>
       <c r="AY16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ16">
         <v>900</v>
       </c>
+      <c r="BA16">
+        <v>31.71333333333333</v>
+      </c>
+      <c r="BB16">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:54">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -3249,51 +3351,57 @@
         <v>32</v>
       </c>
       <c r="AO17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX17">
         <v>314.4</v>
       </c>
       <c r="AY17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ17">
         <v>900</v>
       </c>
+      <c r="BA17">
+        <v>34.93333333333334</v>
+      </c>
+      <c r="BB17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:54">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -3407,51 +3515,57 @@
         <v>29.6</v>
       </c>
       <c r="AO18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX18">
         <v>247.62</v>
       </c>
       <c r="AY18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ18">
         <v>900</v>
       </c>
+      <c r="BA18">
+        <v>27.51333333333334</v>
+      </c>
+      <c r="BB18">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:54">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -3565,40 +3679,46 @@
         <v>21.6</v>
       </c>
       <c r="AO19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AT19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AW19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX19">
         <v>308.22</v>
       </c>
       <c r="AY19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ19">
         <v>900</v>
+      </c>
+      <c r="BA19">
+        <v>34.24666666666667</v>
+      </c>
+      <c r="BB19">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
